--- a/Modelagem/Modelagem-SpMedGroup-Fisico.xlsx
+++ b/Modelagem/Modelagem-SpMedGroup-Fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48417687858\Documents\Senai 2ºT\SpMedGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48417687858\Documents\Senai 2ºT\senai_spmedgroup_sprint1_bd_tarde_FelipeSabino-\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935D3E3-5571-421E-A0A0-38057A301E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04158663-6658-4FF6-A4E1-C619F908077D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{82575D71-B5BF-4C9C-B0E5-46E808BAC196}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
   <si>
     <t>Clinica</t>
   </si>
@@ -195,9 +195,6 @@
     <t>43522543-5</t>
   </si>
   <si>
-    <t>Rua Estado de Israel 240, São Paulo, Estado de São Paulo, 04022-000</t>
-  </si>
-  <si>
     <t>Alexandre</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>32654345-7</t>
   </si>
   <si>
-    <t>Av. Paulista, 1578 - Bela Vista, São Paulo - SP, 01310-200</t>
-  </si>
-  <si>
     <t>Fernando</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>54636525-3</t>
   </si>
   <si>
-    <t>Av. Ibirapuera - Indianópolis, 2927,  São Paulo - SP, 04029-200</t>
-  </si>
-  <si>
     <t>Henrique</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>54366362-5</t>
   </si>
   <si>
-    <t>R. Vitória, 120 - Vila Sao Jorge, Barueri - SP, 06402-030</t>
-  </si>
-  <si>
     <t>João</t>
   </si>
   <si>
@@ -252,12 +240,6 @@
     <t>11 7656-6377</t>
   </si>
   <si>
-    <t>t32544444-1</t>
-  </si>
-  <si>
-    <t>R. Ver. Geraldo de Camargo, 66 - Santa Luzia, Ribeirão Pires - SP, 09405-380</t>
-  </si>
-  <si>
     <t>Bruno</t>
   </si>
   <si>
@@ -270,9 +252,6 @@
     <t>54566266-7</t>
   </si>
   <si>
-    <t>Alameda dos Arapanés, 945 - Indianópolis, São Paulo - SP, 04524-001</t>
-  </si>
-  <si>
     <t>Mariana</t>
   </si>
   <si>
@@ -282,9 +261,6 @@
     <t>54566266-8</t>
   </si>
   <si>
-    <t>R Sao Antonio, 232 - Vila Universal, Barueri - SP, 06407-140</t>
-  </si>
-  <si>
     <t>SituacaoConsulta</t>
   </si>
   <si>
@@ -346,6 +322,33 @@
   </si>
   <si>
     <t>RazaoSocial</t>
+  </si>
+  <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>Rua Estado de Israel 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. Paulista, 1578 </t>
+  </si>
+  <si>
+    <t>R. Ver. Geraldo de Camargo, 66</t>
+  </si>
+  <si>
+    <t>Alameda dos Arapanés, 945</t>
+  </si>
+  <si>
+    <t>Av. Ibirapuera , 2927</t>
+  </si>
+  <si>
+    <t>R Sao Antonio, 232</t>
+  </si>
+  <si>
+    <t>32544444-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Vitória, 120 </t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA2D49A-EFE7-4544-AA1A-2A786D91D98D}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1050,7 @@
     <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="71.109375" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.5546875" customWidth="1"/>
     <col min="11" max="11" width="21.88671875" customWidth="1"/>
     <col min="12" max="12" width="25.44140625" customWidth="1"/>
@@ -1056,7 +1059,7 @@
     <col min="15" max="15" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>47</v>
       </c>
@@ -1068,10 +1071,11 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>2</v>
@@ -1083,7 +1087,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>48</v>
@@ -1097,8 +1101,11 @@
       <c r="I2" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E3" s="25">
         <v>30602</v>
@@ -1124,182 +1131,203 @@
         <v>94839859000</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="33">
+        <v>4022000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" s="33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E4" s="25">
         <v>37095</v>
       </c>
       <c r="F4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="H4" s="23">
         <v>73556944057</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="J4" s="33">
+        <v>1310200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E5" s="25">
         <v>28773</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="23">
         <v>16839338002</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="J5" s="33">
+        <v>4029200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E6" s="25">
         <v>31333</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H6" s="23">
         <v>14332654765</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="J6" s="33">
+        <v>6402030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E7" s="25">
         <v>27633</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="H7" s="23">
         <v>91305348010</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="J7" s="33">
+        <v>9405380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E8" s="25">
         <v>26379</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H8" s="23">
         <v>79799299004</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="J8" s="33">
+        <v>4524001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>7</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E9" s="25">
         <v>43164</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H9" s="23">
         <v>13771913039</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="J9" s="33">
+        <v>6407140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1338,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1347,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F13" s="11">
         <v>2</v>
@@ -1356,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>2</v>
       </c>
@@ -1370,7 +1398,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F14" s="11">
         <v>17</v>
@@ -1379,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>3</v>
       </c>
@@ -1393,7 +1421,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F15" s="11">
         <v>16</v>
@@ -1465,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>4</v>
@@ -1490,7 +1518,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1499,19 +1527,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1639,7 +1667,7 @@
       </c>
       <c r="B35" s="40"/>
       <c r="D35" s="41" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E35" s="41"/>
     </row>
@@ -1651,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>2</v>
@@ -1668,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1682,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1696,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1815,11 +1843,11 @@
   <mergeCells count="7">
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" xr:uid="{63CF627F-EE38-4441-8DC3-D95AC5E13402}"/>
